--- a/my dashboard.xlsx
+++ b/my dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b2b7240bc505f05e/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaikh Habiba\OneDrive\Documents\GitHub\excel-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{4C250A22-B405-40B5-9791-50FEC6C26420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92BDDB67-DC0B-4CC1-873A-DC1B988B2859}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1B4103-AA79-4BFE-9449-2ABA12F07ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16218,10 +16218,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shaikh Habiba" refreshedDate="45882.949993055554" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="102" xr:uid="{FE031E49-59D7-44C4-9A7D-ED068322432C}">
   <cacheSource type="worksheet">
@@ -19079,6 +19075,903 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA1C2C9-A2D9-470B-B3B9-B374DB851AE8}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
+  <location ref="H20:I46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="26">
+        <item x="16"/>
+        <item x="12"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="22"/>
+        <item x="20"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="15"/>
+        <item x="6"/>
+        <item x="24"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="18"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="23"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Sales ($)" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="12" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3615CBEB-9AE5-460C-A6F1-EA1F79AEDC85}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="103">
+        <item x="82"/>
+        <item x="66"/>
+        <item x="53"/>
+        <item x="92"/>
+        <item x="47"/>
+        <item x="31"/>
+        <item x="98"/>
+        <item x="64"/>
+        <item x="91"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="50"/>
+        <item x="26"/>
+        <item x="62"/>
+        <item x="24"/>
+        <item x="80"/>
+        <item x="20"/>
+        <item x="69"/>
+        <item x="28"/>
+        <item x="48"/>
+        <item x="72"/>
+        <item x="23"/>
+        <item x="59"/>
+        <item x="77"/>
+        <item x="55"/>
+        <item x="95"/>
+        <item x="73"/>
+        <item x="83"/>
+        <item x="29"/>
+        <item x="79"/>
+        <item x="56"/>
+        <item x="2"/>
+        <item x="99"/>
+        <item x="8"/>
+        <item x="75"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="97"/>
+        <item x="30"/>
+        <item x="84"/>
+        <item x="61"/>
+        <item x="70"/>
+        <item x="3"/>
+        <item x="34"/>
+        <item x="37"/>
+        <item x="85"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="94"/>
+        <item x="43"/>
+        <item x="21"/>
+        <item x="17"/>
+        <item x="46"/>
+        <item x="96"/>
+        <item x="7"/>
+        <item x="68"/>
+        <item x="33"/>
+        <item x="19"/>
+        <item x="81"/>
+        <item x="52"/>
+        <item x="32"/>
+        <item x="49"/>
+        <item x="51"/>
+        <item x="100"/>
+        <item x="39"/>
+        <item x="71"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="65"/>
+        <item x="89"/>
+        <item x="1"/>
+        <item x="40"/>
+        <item x="10"/>
+        <item x="88"/>
+        <item x="6"/>
+        <item x="87"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="86"/>
+        <item x="90"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="27"/>
+        <item x="93"/>
+        <item x="63"/>
+        <item x="5"/>
+        <item x="74"/>
+        <item x="35"/>
+        <item x="45"/>
+        <item x="76"/>
+        <item x="101"/>
+        <item x="60"/>
+        <item x="13"/>
+        <item x="58"/>
+        <item x="9"/>
+        <item x="38"/>
+        <item x="78"/>
+        <item x="54"/>
+        <item x="67"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Profit ($)" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="13" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92703AB5-BC85-426B-B9AE-0D13AC569139}" name="PivotTable11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="D4:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="12">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="10"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Profit ($)" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="5" type="valueGreaterThanOrEqual" evalOrder="-1" id="4" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThanOrEqual" val="25000"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77E10D8C-86CF-421B-A1FD-D5860B988A5F}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="H3:I16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="13">
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="8"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="103">
+        <item x="18"/>
+        <item x="46"/>
+        <item x="68"/>
+        <item x="51"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="23"/>
+        <item x="3"/>
+        <item x="17"/>
+        <item x="7"/>
+        <item x="55"/>
+        <item x="81"/>
+        <item x="71"/>
+        <item x="37"/>
+        <item x="94"/>
+        <item x="21"/>
+        <item x="72"/>
+        <item x="59"/>
+        <item x="75"/>
+        <item x="49"/>
+        <item x="6"/>
+        <item x="8"/>
+        <item x="20"/>
+        <item x="41"/>
+        <item x="77"/>
+        <item x="84"/>
+        <item x="44"/>
+        <item x="42"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="85"/>
+        <item x="96"/>
+        <item x="87"/>
+        <item x="79"/>
+        <item x="69"/>
+        <item x="83"/>
+        <item x="11"/>
+        <item x="73"/>
+        <item x="90"/>
+        <item x="70"/>
+        <item x="27"/>
+        <item x="56"/>
+        <item x="91"/>
+        <item x="64"/>
+        <item x="95"/>
+        <item x="88"/>
+        <item x="35"/>
+        <item x="98"/>
+        <item x="48"/>
+        <item x="63"/>
+        <item x="76"/>
+        <item x="25"/>
+        <item x="31"/>
+        <item x="101"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="36"/>
+        <item x="61"/>
+        <item x="4"/>
+        <item x="40"/>
+        <item x="92"/>
+        <item x="100"/>
+        <item x="28"/>
+        <item x="62"/>
+        <item x="33"/>
+        <item x="32"/>
+        <item x="19"/>
+        <item x="97"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="47"/>
+        <item x="53"/>
+        <item x="24"/>
+        <item x="80"/>
+        <item x="65"/>
+        <item x="29"/>
+        <item x="67"/>
+        <item x="38"/>
+        <item x="50"/>
+        <item x="30"/>
+        <item x="78"/>
+        <item x="93"/>
+        <item x="34"/>
+        <item x="74"/>
+        <item x="14"/>
+        <item x="52"/>
+        <item x="54"/>
+        <item x="13"/>
+        <item x="43"/>
+        <item x="60"/>
+        <item x="89"/>
+        <item x="99"/>
+        <item x="45"/>
+        <item x="66"/>
+        <item x="86"/>
+        <item x="15"/>
+        <item x="82"/>
+        <item x="9"/>
+        <item x="39"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="103">
+        <item x="82"/>
+        <item x="66"/>
+        <item x="53"/>
+        <item x="92"/>
+        <item x="47"/>
+        <item x="31"/>
+        <item x="98"/>
+        <item x="64"/>
+        <item x="91"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="50"/>
+        <item x="26"/>
+        <item x="62"/>
+        <item x="24"/>
+        <item x="80"/>
+        <item x="20"/>
+        <item x="69"/>
+        <item x="28"/>
+        <item x="48"/>
+        <item x="72"/>
+        <item x="23"/>
+        <item x="59"/>
+        <item x="77"/>
+        <item x="55"/>
+        <item x="95"/>
+        <item x="73"/>
+        <item x="83"/>
+        <item x="29"/>
+        <item x="79"/>
+        <item x="56"/>
+        <item x="2"/>
+        <item x="99"/>
+        <item x="8"/>
+        <item x="75"/>
+        <item x="16"/>
+        <item x="12"/>
+        <item x="97"/>
+        <item x="30"/>
+        <item x="84"/>
+        <item x="61"/>
+        <item x="70"/>
+        <item x="3"/>
+        <item x="34"/>
+        <item x="37"/>
+        <item x="85"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="94"/>
+        <item x="43"/>
+        <item x="21"/>
+        <item x="17"/>
+        <item x="46"/>
+        <item x="96"/>
+        <item x="7"/>
+        <item x="68"/>
+        <item x="33"/>
+        <item x="19"/>
+        <item x="81"/>
+        <item x="52"/>
+        <item x="32"/>
+        <item x="49"/>
+        <item x="51"/>
+        <item x="100"/>
+        <item x="39"/>
+        <item x="71"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="15"/>
+        <item x="65"/>
+        <item x="89"/>
+        <item x="1"/>
+        <item x="40"/>
+        <item x="10"/>
+        <item x="88"/>
+        <item x="6"/>
+        <item x="87"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="86"/>
+        <item x="90"/>
+        <item x="57"/>
+        <item x="42"/>
+        <item x="27"/>
+        <item x="93"/>
+        <item x="63"/>
+        <item x="5"/>
+        <item x="74"/>
+        <item x="35"/>
+        <item x="45"/>
+        <item x="76"/>
+        <item x="101"/>
+        <item x="60"/>
+        <item x="13"/>
+        <item x="58"/>
+        <item x="9"/>
+        <item x="38"/>
+        <item x="78"/>
+        <item x="54"/>
+        <item x="67"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Profit ($)" fld="8" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{076A374D-2D99-434F-8BFA-353F2B1AB46F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="30">
   <location ref="N3:O16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -19619,7 +20512,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CFD24E0A-44EA-4659-AD82-F750781B98CB}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="K3:L6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
@@ -19934,903 +20827,6 @@
   </colItems>
   <dataFields count="1">
     <dataField name="Sum of Customer Count" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3EA1C2C9-A2D9-470B-B3B9-B374DB851AE8}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="21">
-  <location ref="H20:I46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="26">
-        <item x="16"/>
-        <item x="12"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="22"/>
-        <item x="20"/>
-        <item x="5"/>
-        <item x="21"/>
-        <item x="15"/>
-        <item x="6"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="18"/>
-        <item x="14"/>
-        <item x="19"/>
-        <item x="23"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="26">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Sales ($)" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="12" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3615CBEB-9AE5-460C-A6F1-EA1F79AEDC85}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
-  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="103">
-        <item x="82"/>
-        <item x="66"/>
-        <item x="53"/>
-        <item x="92"/>
-        <item x="47"/>
-        <item x="31"/>
-        <item x="98"/>
-        <item x="64"/>
-        <item x="91"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="50"/>
-        <item x="26"/>
-        <item x="62"/>
-        <item x="24"/>
-        <item x="80"/>
-        <item x="20"/>
-        <item x="69"/>
-        <item x="28"/>
-        <item x="48"/>
-        <item x="72"/>
-        <item x="23"/>
-        <item x="59"/>
-        <item x="77"/>
-        <item x="55"/>
-        <item x="95"/>
-        <item x="73"/>
-        <item x="83"/>
-        <item x="29"/>
-        <item x="79"/>
-        <item x="56"/>
-        <item x="2"/>
-        <item x="99"/>
-        <item x="8"/>
-        <item x="75"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="97"/>
-        <item x="30"/>
-        <item x="84"/>
-        <item x="61"/>
-        <item x="70"/>
-        <item x="3"/>
-        <item x="34"/>
-        <item x="37"/>
-        <item x="85"/>
-        <item x="4"/>
-        <item x="18"/>
-        <item x="44"/>
-        <item x="94"/>
-        <item x="43"/>
-        <item x="21"/>
-        <item x="17"/>
-        <item x="46"/>
-        <item x="96"/>
-        <item x="7"/>
-        <item x="68"/>
-        <item x="33"/>
-        <item x="19"/>
-        <item x="81"/>
-        <item x="52"/>
-        <item x="32"/>
-        <item x="49"/>
-        <item x="51"/>
-        <item x="100"/>
-        <item x="39"/>
-        <item x="71"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="65"/>
-        <item x="89"/>
-        <item x="1"/>
-        <item x="40"/>
-        <item x="10"/>
-        <item x="88"/>
-        <item x="6"/>
-        <item x="87"/>
-        <item x="36"/>
-        <item x="41"/>
-        <item x="86"/>
-        <item x="90"/>
-        <item x="57"/>
-        <item x="42"/>
-        <item x="27"/>
-        <item x="93"/>
-        <item x="63"/>
-        <item x="5"/>
-        <item x="74"/>
-        <item x="35"/>
-        <item x="45"/>
-        <item x="76"/>
-        <item x="101"/>
-        <item x="60"/>
-        <item x="13"/>
-        <item x="58"/>
-        <item x="9"/>
-        <item x="38"/>
-        <item x="78"/>
-        <item x="54"/>
-        <item x="67"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Profit ($)" fld="8" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="13" format="11" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="12">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="13" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{92703AB5-BC85-426B-B9AE-0D13AC569139}" name="PivotTable11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="D4:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="12">
-        <item x="8"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="10"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Profit ($)" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="2" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="5" type="valueGreaterThanOrEqual" evalOrder="-1" id="4" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="greaterThanOrEqual" val="25000"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{77E10D8C-86CF-421B-A1FD-D5860B988A5F}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="H3:I16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="11">
-        <item x="8"/>
-        <item x="6"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="103">
-        <item x="18"/>
-        <item x="46"/>
-        <item x="68"/>
-        <item x="51"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="23"/>
-        <item x="3"/>
-        <item x="17"/>
-        <item x="7"/>
-        <item x="55"/>
-        <item x="81"/>
-        <item x="71"/>
-        <item x="37"/>
-        <item x="94"/>
-        <item x="21"/>
-        <item x="72"/>
-        <item x="59"/>
-        <item x="75"/>
-        <item x="49"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="20"/>
-        <item x="41"/>
-        <item x="77"/>
-        <item x="84"/>
-        <item x="44"/>
-        <item x="42"/>
-        <item x="0"/>
-        <item x="26"/>
-        <item x="1"/>
-        <item x="10"/>
-        <item x="85"/>
-        <item x="96"/>
-        <item x="87"/>
-        <item x="79"/>
-        <item x="69"/>
-        <item x="83"/>
-        <item x="11"/>
-        <item x="73"/>
-        <item x="90"/>
-        <item x="70"/>
-        <item x="27"/>
-        <item x="56"/>
-        <item x="91"/>
-        <item x="64"/>
-        <item x="95"/>
-        <item x="88"/>
-        <item x="35"/>
-        <item x="98"/>
-        <item x="48"/>
-        <item x="63"/>
-        <item x="76"/>
-        <item x="25"/>
-        <item x="31"/>
-        <item x="101"/>
-        <item x="22"/>
-        <item x="5"/>
-        <item x="36"/>
-        <item x="61"/>
-        <item x="4"/>
-        <item x="40"/>
-        <item x="92"/>
-        <item x="100"/>
-        <item x="28"/>
-        <item x="62"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="19"/>
-        <item x="97"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="47"/>
-        <item x="53"/>
-        <item x="24"/>
-        <item x="80"/>
-        <item x="65"/>
-        <item x="29"/>
-        <item x="67"/>
-        <item x="38"/>
-        <item x="50"/>
-        <item x="30"/>
-        <item x="78"/>
-        <item x="93"/>
-        <item x="34"/>
-        <item x="74"/>
-        <item x="14"/>
-        <item x="52"/>
-        <item x="54"/>
-        <item x="13"/>
-        <item x="43"/>
-        <item x="60"/>
-        <item x="89"/>
-        <item x="99"/>
-        <item x="45"/>
-        <item x="66"/>
-        <item x="86"/>
-        <item x="15"/>
-        <item x="82"/>
-        <item x="9"/>
-        <item x="39"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="103">
-        <item x="82"/>
-        <item x="66"/>
-        <item x="53"/>
-        <item x="92"/>
-        <item x="47"/>
-        <item x="31"/>
-        <item x="98"/>
-        <item x="64"/>
-        <item x="91"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="50"/>
-        <item x="26"/>
-        <item x="62"/>
-        <item x="24"/>
-        <item x="80"/>
-        <item x="20"/>
-        <item x="69"/>
-        <item x="28"/>
-        <item x="48"/>
-        <item x="72"/>
-        <item x="23"/>
-        <item x="59"/>
-        <item x="77"/>
-        <item x="55"/>
-        <item x="95"/>
-        <item x="73"/>
-        <item x="83"/>
-        <item x="29"/>
-        <item x="79"/>
-        <item x="56"/>
-        <item x="2"/>
-        <item x="99"/>
-        <item x="8"/>
-        <item x="75"/>
-        <item x="16"/>
-        <item x="12"/>
-        <item x="97"/>
-        <item x="30"/>
-        <item x="84"/>
-        <item x="61"/>
-        <item x="70"/>
-        <item x="3"/>
-        <item x="34"/>
-        <item x="37"/>
-        <item x="85"/>
-        <item x="4"/>
-        <item x="18"/>
-        <item x="44"/>
-        <item x="94"/>
-        <item x="43"/>
-        <item x="21"/>
-        <item x="17"/>
-        <item x="46"/>
-        <item x="96"/>
-        <item x="7"/>
-        <item x="68"/>
-        <item x="33"/>
-        <item x="19"/>
-        <item x="81"/>
-        <item x="52"/>
-        <item x="32"/>
-        <item x="49"/>
-        <item x="51"/>
-        <item x="100"/>
-        <item x="39"/>
-        <item x="71"/>
-        <item x="14"/>
-        <item x="11"/>
-        <item x="15"/>
-        <item x="65"/>
-        <item x="89"/>
-        <item x="1"/>
-        <item x="40"/>
-        <item x="10"/>
-        <item x="88"/>
-        <item x="6"/>
-        <item x="87"/>
-        <item x="36"/>
-        <item x="41"/>
-        <item x="86"/>
-        <item x="90"/>
-        <item x="57"/>
-        <item x="42"/>
-        <item x="27"/>
-        <item x="93"/>
-        <item x="63"/>
-        <item x="5"/>
-        <item x="74"/>
-        <item x="35"/>
-        <item x="45"/>
-        <item x="76"/>
-        <item x="101"/>
-        <item x="60"/>
-        <item x="13"/>
-        <item x="58"/>
-        <item x="9"/>
-        <item x="38"/>
-        <item x="78"/>
-        <item x="54"/>
-        <item x="67"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Profit ($)" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
